--- a/Advance_Selenium/testdata.xlsx
+++ b/Advance_Selenium/testdata.xlsx
@@ -1,21 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d6f50ef9fe157040/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="43" documentId="8_{225C371C-88EF-4930-95EF-9D555153BF4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7B15E79C-90A9-495C-B724-70403FA4D7F4}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{C953EC6E-A86B-418D-B524-417A73C916DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B698A04C-DCC7-4377-A88E-A30F6FCAFBC9}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="SAUCESHEET" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
